--- a/biology/Botanique/I.M.Johnst/I.M.Johnst..xlsx
+++ b/biology/Botanique/I.M.Johnst/I.M.Johnst..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Murray Johnston est un botaniste américain né le 28 février 1898 et mort le 31 mai 1960.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a créé le genre Euplassa (Proteaceae) qui compte vingt espèces, et décrit Euplasa occidentalis. Il a aussi créé le genre de conifère monospécifique Fitzroya cupressoides (Cupressaceae) dédié au vice-amiral Robert Fitzroy (1805-1865), pionnier de la météorologie. I.M. Johnston a aussi décrit et nommé Astragalus sprucei (Fabaceae), Fuchsia hypoleuca (Onagraceae), espèces endémiques de l'Équateur. Il a également renommé Leucophyllum frutescens (Scrophulariaceae), arbuste persistant originaire du Sud des États-Unis.
 Sa collection de plantes est conservée au jardin botanique du Rancho Santa Ana à Claremont et dans l’herbarium de Gray à l’université Harvard.
